--- a/products_img/Products.xlsx
+++ b/products_img/Products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>image</t>
   </si>
@@ -941,6 +941,228 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>1001.html</t>
+  </si>
+  <si>
+    <t>1002.html</t>
+  </si>
+  <si>
+    <t>1003.html</t>
+  </si>
+  <si>
+    <t>1004.html</t>
+  </si>
+  <si>
+    <t>1005.html</t>
+  </si>
+  <si>
+    <t>1006.html</t>
+  </si>
+  <si>
+    <t>1007.html</t>
+  </si>
+  <si>
+    <t>1008.html</t>
+  </si>
+  <si>
+    <t>1009.html</t>
+  </si>
+  <si>
+    <t>1010.html</t>
+  </si>
+  <si>
+    <t>1011.html</t>
+  </si>
+  <si>
+    <t>1012.html</t>
+  </si>
+  <si>
+    <t>1013.html</t>
+  </si>
+  <si>
+    <t>1014.html</t>
+  </si>
+  <si>
+    <t>1015.html</t>
+  </si>
+  <si>
+    <t>1016.html</t>
+  </si>
+  <si>
+    <t>1017.html</t>
+  </si>
+  <si>
+    <t>1018.html</t>
+  </si>
+  <si>
+    <t>1019.html</t>
+  </si>
+  <si>
+    <t>1020.html</t>
+  </si>
+  <si>
+    <t>1021.html</t>
+  </si>
+  <si>
+    <t>1022.html</t>
+  </si>
+  <si>
+    <t>1023.html</t>
+  </si>
+  <si>
+    <t>1024.html</t>
+  </si>
+  <si>
+    <t>1025.html</t>
+  </si>
+  <si>
+    <t>1026.html</t>
+  </si>
+  <si>
+    <t>1027.html</t>
+  </si>
+  <si>
+    <t>1028.html</t>
+  </si>
+  <si>
+    <t>1029.html</t>
+  </si>
+  <si>
+    <t>1030.html</t>
+  </si>
+  <si>
+    <t>1031.html</t>
+  </si>
+  <si>
+    <t>1032.html</t>
+  </si>
+  <si>
+    <t>1033.html</t>
+  </si>
+  <si>
+    <t>1034.html</t>
+  </si>
+  <si>
+    <t>1035.html</t>
+  </si>
+  <si>
+    <t>1036.html</t>
+  </si>
+  <si>
+    <t>1037.html</t>
+  </si>
+  <si>
+    <t>1038.html</t>
+  </si>
+  <si>
+    <t>1039.html</t>
+  </si>
+  <si>
+    <t>1040.html</t>
+  </si>
+  <si>
+    <t>1041.html</t>
+  </si>
+  <si>
+    <t>1042.html</t>
+  </si>
+  <si>
+    <t>1043.html</t>
+  </si>
+  <si>
+    <t>1044.html</t>
+  </si>
+  <si>
+    <t>1045.html</t>
+  </si>
+  <si>
+    <t>1046.html</t>
+  </si>
+  <si>
+    <t>1047.html</t>
+  </si>
+  <si>
+    <t>1048.html</t>
+  </si>
+  <si>
+    <t>1049.html</t>
+  </si>
+  <si>
+    <t>1050.html</t>
+  </si>
+  <si>
+    <t>1051.html</t>
+  </si>
+  <si>
+    <t>1052.html</t>
+  </si>
+  <si>
+    <t>1053.html</t>
+  </si>
+  <si>
+    <t>1054.html</t>
+  </si>
+  <si>
+    <t>1055.html</t>
+  </si>
+  <si>
+    <t>1056.html</t>
+  </si>
+  <si>
+    <t>1057.html</t>
+  </si>
+  <si>
+    <t>1058.html</t>
+  </si>
+  <si>
+    <t>1059.html</t>
+  </si>
+  <si>
+    <t>1060.html</t>
+  </si>
+  <si>
+    <t>1061.html</t>
+  </si>
+  <si>
+    <t>1062.html</t>
+  </si>
+  <si>
+    <t>1063.html</t>
+  </si>
+  <si>
+    <t>1064.html</t>
+  </si>
+  <si>
+    <t>1065.html</t>
+  </si>
+  <si>
+    <t>1066.html</t>
+  </si>
+  <si>
+    <t>1067.html</t>
+  </si>
+  <si>
+    <t>1068.html</t>
+  </si>
+  <si>
+    <t>1069.html</t>
+  </si>
+  <si>
+    <t>1070.html</t>
+  </si>
+  <si>
+    <t>1071.html</t>
+  </si>
+  <si>
+    <t>1072.html</t>
+  </si>
+  <si>
+    <t>1073.html</t>
+  </si>
+  <si>
+    <t>1074.html</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,8 +1606,8 @@
       <c r="F3" s="1">
         <v>59.54</v>
       </c>
-      <c r="G3">
-        <v>1001</v>
+      <c r="G3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,8 +1629,8 @@
       <c r="F4" s="1">
         <v>59.54</v>
       </c>
-      <c r="G4">
-        <v>1002</v>
+      <c r="G4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1430,8 +1652,8 @@
       <c r="F5" s="1">
         <v>178.61</v>
       </c>
-      <c r="G5">
-        <v>1003</v>
+      <c r="G5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,8 +1675,8 @@
       <c r="F6" s="1">
         <v>178.61</v>
       </c>
-      <c r="G6">
-        <v>1004</v>
+      <c r="G6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1476,8 +1698,8 @@
       <c r="F7" s="1">
         <v>178.61</v>
       </c>
-      <c r="G7">
-        <v>1005</v>
+      <c r="G7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,8 +1721,8 @@
       <c r="F8" s="1">
         <v>238.12</v>
       </c>
-      <c r="G8">
-        <v>1006</v>
+      <c r="G8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1522,8 +1744,8 @@
       <c r="F9" s="1">
         <v>238.12</v>
       </c>
-      <c r="G9">
-        <v>1007</v>
+      <c r="G9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,8 +1767,8 @@
       <c r="F10" s="1">
         <v>238.12</v>
       </c>
-      <c r="G10">
-        <v>1008</v>
+      <c r="G10" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1568,8 +1790,8 @@
       <c r="F11" s="1">
         <v>81.36</v>
       </c>
-      <c r="G11">
-        <v>1009</v>
+      <c r="G11" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,8 +1813,8 @@
       <c r="F12" s="1">
         <v>40.06</v>
       </c>
-      <c r="G12">
-        <v>1010</v>
+      <c r="G12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1614,8 +1836,8 @@
       <c r="F13" s="3">
         <v>8.58</v>
       </c>
-      <c r="G13">
-        <v>1011</v>
+      <c r="G13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1637,8 +1859,8 @@
       <c r="F14" s="1">
         <v>27.48</v>
       </c>
-      <c r="G14">
-        <v>1012</v>
+      <c r="G14" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1660,8 +1882,8 @@
       <c r="F15" s="1">
         <v>40.06</v>
       </c>
-      <c r="G15">
-        <v>1013</v>
+      <c r="G15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,8 +1905,8 @@
       <c r="F16" s="1">
         <v>72.680000000000007</v>
       </c>
-      <c r="G16">
-        <v>1014</v>
+      <c r="G16" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1706,8 +1928,8 @@
       <c r="F17" s="1">
         <v>156.84</v>
       </c>
-      <c r="G17">
-        <v>1015</v>
+      <c r="G17" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1729,8 +1951,8 @@
       <c r="F18" s="1">
         <v>35.5</v>
       </c>
-      <c r="G18">
-        <v>1016</v>
+      <c r="G18" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,8 +1974,8 @@
       <c r="F19" s="1">
         <v>34.909999999999997</v>
       </c>
-      <c r="G19">
-        <v>1017</v>
+      <c r="G19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,8 +1997,8 @@
       <c r="F20" s="1">
         <v>72.680000000000007</v>
       </c>
-      <c r="G20">
-        <v>1018</v>
+      <c r="G20" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1798,8 +2020,8 @@
       <c r="F21" s="1">
         <v>54.94</v>
       </c>
-      <c r="G21">
-        <v>1019</v>
+      <c r="G21" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1821,8 +2043,8 @@
       <c r="F22" s="1">
         <v>41.79</v>
       </c>
-      <c r="G22">
-        <v>1020</v>
+      <c r="G22" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1844,8 +2066,8 @@
       <c r="F23" s="1">
         <v>48.08</v>
       </c>
-      <c r="G23">
-        <v>1021</v>
+      <c r="G23" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1867,8 +2089,8 @@
       <c r="F24" s="1">
         <v>84.69</v>
       </c>
-      <c r="G24">
-        <v>1022</v>
+      <c r="G24" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1890,8 +2112,8 @@
       <c r="F25" s="1">
         <v>80.12</v>
       </c>
-      <c r="G25">
-        <v>1023</v>
+      <c r="G25" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,8 +2135,8 @@
       <c r="F26" s="1">
         <v>187.14</v>
       </c>
-      <c r="G26">
-        <v>1024</v>
+      <c r="G26" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,8 +2158,8 @@
       <c r="F27" s="1">
         <v>60.68</v>
       </c>
-      <c r="G27">
-        <v>1025</v>
+      <c r="G27" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1959,8 +2181,8 @@
       <c r="F28" s="1">
         <v>75.58</v>
       </c>
-      <c r="G28">
-        <v>1026</v>
+      <c r="G28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1982,8 +2204,8 @@
       <c r="F29" s="1">
         <v>88.12</v>
       </c>
-      <c r="G29">
-        <v>1027</v>
+      <c r="G29" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2005,8 +2227,8 @@
       <c r="F30" s="1">
         <v>68.680000000000007</v>
       </c>
-      <c r="G30">
-        <v>1028</v>
+      <c r="G30" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2028,8 +2250,8 @@
       <c r="F31" s="1">
         <v>72.680000000000007</v>
       </c>
-      <c r="G31">
-        <v>1029</v>
+      <c r="G31" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2051,8 +2273,8 @@
       <c r="F32" s="3">
         <v>118.46</v>
       </c>
-      <c r="G32">
-        <v>1030</v>
+      <c r="G32" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2074,8 +2296,8 @@
       <c r="F33" s="1">
         <v>36.61</v>
       </c>
-      <c r="G33">
-        <v>1031</v>
+      <c r="G33" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2097,8 +2319,8 @@
       <c r="F34" s="1">
         <v>41.79</v>
       </c>
-      <c r="G34">
-        <v>1032</v>
+      <c r="G34" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2120,8 +2342,8 @@
       <c r="F35" s="1">
         <v>49.78</v>
       </c>
-      <c r="G35">
-        <v>1033</v>
+      <c r="G35" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2143,8 +2365,8 @@
       <c r="F36" s="1">
         <v>8</v>
       </c>
-      <c r="G36">
-        <v>1034</v>
+      <c r="G36" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2166,8 +2388,8 @@
       <c r="F37" s="1">
         <v>36.08</v>
       </c>
-      <c r="G37">
-        <v>1035</v>
+      <c r="G37" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,8 +2411,8 @@
       <c r="F38" s="1">
         <v>400.64</v>
       </c>
-      <c r="G38">
-        <v>1036</v>
+      <c r="G38" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2212,8 +2434,8 @@
       <c r="F39" s="1">
         <v>80.12</v>
       </c>
-      <c r="G39">
-        <v>1037</v>
+      <c r="G39" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2235,8 +2457,8 @@
       <c r="F40" s="1">
         <v>119.05</v>
       </c>
-      <c r="G40">
-        <v>1038</v>
+      <c r="G40" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2258,8 +2480,8 @@
       <c r="F41" s="1">
         <v>60.11</v>
       </c>
-      <c r="G41">
-        <v>1039</v>
+      <c r="G41" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2281,8 +2503,8 @@
       <c r="F42" s="1">
         <v>132.77000000000001</v>
       </c>
-      <c r="G42">
-        <v>1040</v>
+      <c r="G42" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2304,8 +2526,8 @@
       <c r="F43" s="1">
         <v>83.57</v>
       </c>
-      <c r="G43">
-        <v>1041</v>
+      <c r="G43" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2327,8 +2549,8 @@
       <c r="F44" s="1">
         <v>41.79</v>
       </c>
-      <c r="G44">
-        <v>1042</v>
+      <c r="G44" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2350,8 +2572,8 @@
       <c r="F45" s="1">
         <v>195.18</v>
       </c>
-      <c r="G45">
-        <v>1043</v>
+      <c r="G45" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2373,8 +2595,8 @@
       <c r="F46" s="1">
         <v>50.92</v>
       </c>
-      <c r="G46">
-        <v>1044</v>
+      <c r="G46" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2396,8 +2618,8 @@
       <c r="F47" s="1">
         <v>53.82</v>
       </c>
-      <c r="G47">
-        <v>1045</v>
+      <c r="G47" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2419,8 +2641,8 @@
       <c r="F48" s="1">
         <v>53.82</v>
       </c>
-      <c r="G48">
-        <v>1046</v>
+      <c r="G48" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2442,8 +2664,8 @@
       <c r="F49" s="3">
         <v>58.96</v>
       </c>
-      <c r="G49">
-        <v>1047</v>
+      <c r="G49" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2465,8 +2687,8 @@
       <c r="F50" s="1">
         <v>34.340000000000003</v>
       </c>
-      <c r="G50">
-        <v>1048</v>
+      <c r="G50" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,8 +2710,8 @@
       <c r="F51" s="1">
         <v>34.340000000000003</v>
       </c>
-      <c r="G51">
-        <v>1049</v>
+      <c r="G51" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2511,8 +2733,8 @@
       <c r="F52" s="1">
         <v>45.24</v>
       </c>
-      <c r="G52">
-        <v>1050</v>
+      <c r="G52" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2534,8 +2756,8 @@
       <c r="F53" s="1">
         <v>52.68</v>
       </c>
-      <c r="G53">
-        <v>1051</v>
+      <c r="G53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2557,8 +2779,8 @@
       <c r="F54" s="1">
         <v>45.24</v>
       </c>
-      <c r="G54">
-        <v>1052</v>
+      <c r="G54" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2580,8 +2802,8 @@
       <c r="F55" s="1">
         <v>47.53</v>
       </c>
-      <c r="G55">
-        <v>1053</v>
+      <c r="G55" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2603,8 +2825,8 @@
       <c r="F56" s="3">
         <v>34.340000000000003</v>
       </c>
-      <c r="G56">
-        <v>1054</v>
+      <c r="G56" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2626,8 +2848,8 @@
       <c r="F57" s="1">
         <v>13.76</v>
       </c>
-      <c r="G57">
-        <v>1055</v>
+      <c r="G57" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2649,8 +2871,8 @@
       <c r="F58" s="1">
         <v>51.49</v>
       </c>
-      <c r="G58">
-        <v>1056</v>
+      <c r="G58" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2672,8 +2894,8 @@
       <c r="F59" s="1">
         <v>42.92</v>
       </c>
-      <c r="G59">
-        <v>1057</v>
+      <c r="G59" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2695,8 +2917,8 @@
       <c r="F60" s="1">
         <v>49.78</v>
       </c>
-      <c r="G60">
-        <v>1058</v>
+      <c r="G60" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2718,8 +2940,8 @@
       <c r="F61" s="1">
         <v>53.25</v>
       </c>
-      <c r="G61">
-        <v>1059</v>
+      <c r="G61" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2741,8 +2963,8 @@
       <c r="F62" s="1">
         <v>17.739999999999998</v>
       </c>
-      <c r="G62">
-        <v>1060</v>
+      <c r="G62" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2764,8 +2986,8 @@
       <c r="F63" s="1">
         <v>30.34</v>
       </c>
-      <c r="G63">
-        <v>1061</v>
+      <c r="G63" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2787,8 +3009,8 @@
       <c r="F64" s="3">
         <v>34.340000000000003</v>
       </c>
-      <c r="G64">
-        <v>1062</v>
+      <c r="G64" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2810,8 +3032,8 @@
       <c r="F65" s="1">
         <v>1116.3399999999999</v>
       </c>
-      <c r="G65">
-        <v>1063</v>
+      <c r="G65" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2833,8 +3055,8 @@
       <c r="F66" s="1">
         <v>75.19</v>
       </c>
-      <c r="G66">
-        <v>1064</v>
+      <c r="G66" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2856,8 +3078,8 @@
       <c r="F67" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G67">
-        <v>1065</v>
+      <c r="G67" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,8 +3101,8 @@
       <c r="F68" s="1">
         <v>57.23</v>
       </c>
-      <c r="G68">
-        <v>1066</v>
+      <c r="G68" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2902,8 +3124,8 @@
       <c r="F69" s="1">
         <v>57.23</v>
       </c>
-      <c r="G69">
-        <v>1067</v>
+      <c r="G69" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2925,8 +3147,8 @@
       <c r="F70" s="1">
         <v>127.62</v>
       </c>
-      <c r="G70">
-        <v>1068</v>
+      <c r="G70" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2948,8 +3170,8 @@
       <c r="F71" s="1">
         <v>60.11</v>
       </c>
-      <c r="G71">
-        <v>1069</v>
+      <c r="G71" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2971,8 +3193,8 @@
       <c r="F72" s="1">
         <v>86.44</v>
       </c>
-      <c r="G72">
-        <v>1070</v>
+      <c r="G72" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2994,8 +3216,8 @@
       <c r="F73" s="1">
         <v>10.31</v>
       </c>
-      <c r="G73">
-        <v>1071</v>
+      <c r="G73" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3017,8 +3239,8 @@
       <c r="F74" s="1">
         <v>320.5</v>
       </c>
-      <c r="G74">
-        <v>1072</v>
+      <c r="G74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3037,8 +3259,8 @@
       <c r="F75" s="1">
         <v>270.32</v>
       </c>
-      <c r="G75">
-        <v>1073</v>
+      <c r="G75" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3057,8 +3279,8 @@
       <c r="F76" s="1">
         <v>337.32</v>
       </c>
-      <c r="G76">
-        <v>1074</v>
+      <c r="G76" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
